--- a/MuReSC_BCD_v1/Docs/BOM.xlsx
+++ b/MuReSC_BCD_v1/Docs/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Downloads/PCBs/MuReSC_BCD_v1/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E200FB-4E19-924A-93FE-35F7D1B6EBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E9274-2727-6F4C-A8D1-175F01B79642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15840" xr2:uid="{B756BAB6-C9FD-B945-BDD9-F90A09AA5D0A}"/>
+    <workbookView xWindow="7420" yWindow="500" windowWidth="28040" windowHeight="15840" xr2:uid="{B756BAB6-C9FD-B945-BDD9-F90A09AA5D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>LDO</t>
   </si>
@@ -117,6 +117,54 @@
   </si>
   <si>
     <t>https://www.coilcraft.com/getmedia/b4a6ff85-4c1f-448e-aea7-541369538706/sq_spring.pdf</t>
+  </si>
+  <si>
+    <t>L21.5nH</t>
+  </si>
+  <si>
+    <t>0908SQ-22N</t>
+  </si>
+  <si>
+    <t>0908SQ-17N</t>
+  </si>
+  <si>
+    <t>L16.6nH</t>
+  </si>
+  <si>
+    <t>0908SQ-14N</t>
+  </si>
+  <si>
+    <t>0908SQ-12N</t>
+  </si>
+  <si>
+    <t>0908SQ-8N1</t>
+  </si>
+  <si>
+    <t>L14.7nH</t>
+  </si>
+  <si>
+    <t>L12.1nH</t>
+  </si>
+  <si>
+    <t>L8.1nH</t>
+  </si>
+  <si>
+    <t>0908SQ-23N</t>
+  </si>
+  <si>
+    <t>L23nH</t>
+  </si>
+  <si>
+    <t>l25nH</t>
+  </si>
+  <si>
+    <t>L27.3nH</t>
+  </si>
+  <si>
+    <t>0908SQ-25N</t>
+  </si>
+  <si>
+    <t>0908SQ-27N</t>
   </si>
 </sst>
 </file>
@@ -507,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED429EB-0A3D-7843-94A2-3E842ACD5D8B}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,8 +744,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
